--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.020520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.020520.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2499,12 +2499,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2667,12 +2667,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3129,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3465,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3927,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4975,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5645,12 +5645,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5897,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6947,12 +6947,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7031,12 +7031,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7157,12 +7157,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7241,12 +7241,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7283,12 +7283,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7661,12 +7661,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7829,12 +7829,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7871,12 +7871,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7913,12 +7913,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7997,12 +7997,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8291,12 +8291,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8417,12 +8417,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8879,12 +8879,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9215,12 +9215,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9593,12 +9593,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10097,12 +10097,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10979,12 +10979,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11063,12 +11063,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11105,12 +11105,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11315,12 +11315,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11659,12 +11659,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11701,12 +11701,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12125,12 +12125,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12251,12 +12251,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12377,12 +12377,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13343,12 +13343,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13553,12 +13553,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13679,12 +13679,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13805,12 +13805,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13889,12 +13889,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14099,12 +14099,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14687,12 +14687,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15317,12 +15317,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15443,12 +15443,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16241,12 +16241,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16661,12 +16661,12 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16829,12 +16829,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16913,12 +16913,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16955,12 +16955,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17039,12 +17039,12 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17081,12 +17081,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17249,12 +17249,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18845,12 +18845,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18929,12 +18929,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19013,12 +19013,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19223,12 +19223,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19265,12 +19265,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19391,12 +19391,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19475,12 +19475,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19517,12 +19517,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19601,12 +19601,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19643,12 +19643,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19685,12 +19685,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20445,12 +20445,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20739,12 +20739,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21157,12 +21157,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21915,12 +21915,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22459,12 +22459,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22795,12 +22795,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23173,12 +23173,12 @@
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23299,12 +23299,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23341,12 +23341,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23467,12 +23467,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24433,12 +24433,12 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24811,12 +24811,12 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25313,12 +25313,12 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25355,12 +25355,12 @@
       <c r="H593" t="inlineStr"/>
       <c r="I593" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26073,12 +26073,12 @@
       <c r="H610" t="inlineStr"/>
       <c r="I610" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27421,12 +27421,12 @@
       <c r="H642" t="inlineStr"/>
       <c r="I642" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27463,12 +27463,12 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27547,12 +27547,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27881,12 +27881,12 @@
       <c r="H653" t="inlineStr"/>
       <c r="I653" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28049,12 +28049,12 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28217,12 +28217,12 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28301,12 +28301,12 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28427,12 +28427,12 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28595,12 +28595,12 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28847,12 +28847,12 @@
       <c r="H676" t="inlineStr"/>
       <c r="I676" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28889,12 +28889,12 @@
       <c r="H677" t="inlineStr"/>
       <c r="I677" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
